--- a/temp_doc/impor peserta ujian.xlsx
+++ b/temp_doc/impor peserta ujian.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FC9375-AB74-8446-B426-EDAD60F884BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D1677-0E7F-0F4D-B2E0-DE39017E53E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15380" xr2:uid="{27161CB0-D36A-224C-8430-01DF8F3BE240}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,742 +41,742 @@
     <t>username,password,firstname,lastname,email,cohort1</t>
   </si>
   <si>
-    <t>K0103009800018,SASTH46*,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800027,SASTH46*,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800036,SASTH46*,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800045,SASTH46*,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800054,SASTH46*,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800063,SASTH46*,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800072,SASTH46*,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800089,SASTH46*,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800098,SASTH46*,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800107,SASTH46*,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800116,SASTH46*,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800125,SASTH46*,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800134,SASTH46*,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800143,SASTH46*,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800152,SASTH46*,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800169,SASTH46*,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800178,SASTH46*,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800187,SASTH46*,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800196,SASTH46*,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800205,SASTH46*,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800214,SASTH46*,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800223,SASTH46*,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800232,SASTH46*,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800249,SASTH46*,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800258,SASTH46*,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800267,SASTH46*,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800276,SASTH46*,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800285,SASTH46*,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800294,SASTH46*,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800303,SASTH46*,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800312,SASTH46*,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800329,SASTH46*,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800338,SASTH46*,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800347,SASTH46*,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800356,SASTH46*,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800365,SASTH46*,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800374,SASTH46*,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800383,SASTH46*,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800392,SASTH46*,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800409,SASTH46*,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800418,SASTH46*,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800427,SASTH46*,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800436,SASTH46*,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800445,SASTH46*,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800454,SASTH46*,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800463,SASTH46*,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800472,SASTH46*,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800489,SASTH46*,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800498,SASTH46*,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800507,SASTH46*,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800516,SASTH46*,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800525,SASTH46*,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800534,SASTH46*,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800543,SASTH46*,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800552,SASTH46*,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800569,SASTH46*,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800578,SASTH46*,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800587,SASTH46*,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800596,SASTH46*,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800605,SASTH46*,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800614,SASTH46*,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800623,SASTH46*,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800632,SASTH46*,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800649,SASTH46*,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800658,SASTH46*,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800667,SASTH46*,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800676,SASTH46*,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800685,SASTH46*,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800694,SASTH46*,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800703,SASTH46*,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800712,SASTH46*,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800729,SASTH46*,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800738,SASTH46*,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800747,SASTH46*,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800756,SASTH46*,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800765,SASTH46*,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800774,SASTH46*,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800783,SASTH46*,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800792,SASTH46*,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800809,SASTH46*,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800818,SASTH46*,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800827,SASTH46*,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800836,SASTH46*,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800845,SASTH46*,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800854,SASTH46*,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800863,SASTH46*,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800872,SASTH46*,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800889,SASTH46*,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800898,SASTH46*,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800907,SASTH46*,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800916,SASTH46*,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800925,SASTH46*,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800934,SASTH46*,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800943,SASTH46*,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800952,SASTH46*,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800969,SASTH46*,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800978,SASTH46*,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800987,SASTH46*,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009800996,SASTH46*,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801005,SASTH46*,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801014,SASTH46*,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801023,SASTH46*,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801032,SASTH46*,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801049,SASTH46*,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801058,SASTH46*,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801067,SASTH46*,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801076,SASTH46*,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801085,SASTH46*,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801094,SASTH46*,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801103,SASTH46*,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801112,SASTH46*,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801129,SASTH46*,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801138,SASTH46*,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801147,SASTH46*,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801156,SASTH46*,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801165,SASTH46*,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801174,SASTH46*,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801183,SASTH46*,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801192,SASTH46*,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801209,SASTH46*,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801218,SASTH46*,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801227,SASTH46*,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801236,SASTH46*,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801245,SASTH46*,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801254,SASTH46*,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801263,SASTH46*,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801272,SASTH46*,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801289,SASTH46*,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801298,SASTH46*,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801307,SASTH46*,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801316,SASTH46*,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801325,SASTH46*,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801334,SASTH46*,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801343,SASTH46*,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801352,SASTH46*,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801369,SASTH46*,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801378,SASTH46*,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801387,SASTH46*,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801396,SASTH46*,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801405,SASTH46*,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801414,SASTH46*,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801423,SASTH46*,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801432,SASTH46*,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801449,SASTH46*,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801458,SASTH46*,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801467,SASTH46*,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801476,SASTH46*,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801485,SASTH46*,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801494,SASTH46*,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801503,SASTH46*,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801512,SASTH46*,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801529,SASTH46*,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801538,SASTH46*,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801547,SASTH46*,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801556,SASTH46*,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801565,SASTH46*,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801574,SASTH46*,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801583,SASTH46*,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801592,SASTH46*,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801609,SASTH46*,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801618,SASTH46*,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801627,SASTH46*,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801636,SASTH46*,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801645,SASTH46*,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801654,SASTH46*,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801663,SASTH46*,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801672,SASTH46*,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801689,SASTH46*,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801698,SASTH46*,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801707,SASTH46*,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801716,SASTH46*,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801725,SASTH46*,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801734,SASTH46*,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801743,SASTH46*,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801752,SASTH46*,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801769,SASTH46*,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801778,SASTH46*,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801787,SASTH46*,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801796,SASTH46*,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801805,SASTH46*,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801814,SASTH46*,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801823,SASTH46*,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801832,SASTH46*,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801849,SASTH46*,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801858,SASTH46*,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801867,SASTH46*,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801876,SASTH46*,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801885,SASTH46*,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801894,SASTH46*,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801903,SASTH46*,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801912,SASTH46*,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801929,SASTH46*,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801938,SASTH46*,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801947,SASTH46*,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801956,SASTH46*,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801965,SASTH46*,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801974,SASTH46*,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801983,SASTH46*,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801992,SASTH46*,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802009,SASTH46*,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802018,SASTH46*,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802027,SASTH46*,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802036,SASTH46*,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802045,SASTH46*,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802054,SASTH46*,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802063,SASTH46*,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802072,SASTH46*,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802089,SASTH46*,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802098,SASTH46*,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802107,SASTH46*,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802116,SASTH46*,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802125,SASTH46*,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802134,SASTH46*,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802143,SASTH46*,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802152,SASTH46*,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802169,SASTH46*,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802178,SASTH46*,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802187,SASTH46*,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802196,SASTH46*,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802205,SASTH46*,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802214,SASTH46*,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802223,SASTH46*,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802232,SASTH46*,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802249,SASTH46*,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802258,SASTH46*,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802267,SASTH46*,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802276,SASTH46*,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802285,SASTH46*,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802294,SASTH46*,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802303,SASTH46*,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802312,SASTH46*,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802329,SASTH46*,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802338,SASTH46*,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802347,SASTH46*,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802356,SASTH46*,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802365,SASTH46*,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802374,SASTH46*,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802383,SASTH46*,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802392,SASTH46*,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802409,SASTH46*,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802418,SASTH46*,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802427,SASTH46*,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802436,SASTH46*,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802445,SASTH46*,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802454,SASTH46*,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802463,SASTH46*,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</t>
+    <t>K0103009800018,SASTH46#,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800027,SASTH46#,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800036,SASTH46#,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800045,SASTH46#,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800054,SASTH46#,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800063,SASTH46#,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800072,SASTH46#,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800089,SASTH46#,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800098,SASTH46#,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800107,SASTH46#,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800116,SASTH46#,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800125,SASTH46#,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800134,SASTH46#,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800143,SASTH46#,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800152,SASTH46#,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800169,SASTH46#,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800178,SASTH46#,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800187,SASTH46#,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800196,SASTH46#,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800205,SASTH46#,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800214,SASTH46#,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800223,SASTH46#,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800232,SASTH46#,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800249,SASTH46#,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800258,SASTH46#,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800267,SASTH46#,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800276,SASTH46#,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800285,SASTH46#,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800294,SASTH46#,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800303,SASTH46#,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800312,SASTH46#,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800329,SASTH46#,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800338,SASTH46#,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800347,SASTH46#,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800356,SASTH46#,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800365,SASTH46#,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800374,SASTH46#,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800383,SASTH46#,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800392,SASTH46#,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800409,SASTH46#,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800418,SASTH46#,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800427,SASTH46#,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800436,SASTH46#,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800445,SASTH46#,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800454,SASTH46#,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800463,SASTH46#,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800472,SASTH46#,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800489,SASTH46#,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800498,SASTH46#,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800507,SASTH46#,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800516,SASTH46#,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800525,SASTH46#,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800534,SASTH46#,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800543,SASTH46#,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800552,SASTH46#,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800569,SASTH46#,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800578,SASTH46#,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800587,SASTH46#,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800596,SASTH46#,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800605,SASTH46#,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800614,SASTH46#,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800623,SASTH46#,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800632,SASTH46#,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800649,SASTH46#,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800658,SASTH46#,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800667,SASTH46#,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800676,SASTH46#,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800685,SASTH46#,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800694,SASTH46#,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800703,SASTH46#,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800712,SASTH46#,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800729,SASTH46#,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800738,SASTH46#,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800747,SASTH46#,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800756,SASTH46#,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800765,SASTH46#,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800774,SASTH46#,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800783,SASTH46#,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800792,SASTH46#,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800809,SASTH46#,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800818,SASTH46#,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800827,SASTH46#,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800836,SASTH46#,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800845,SASTH46#,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800854,SASTH46#,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800863,SASTH46#,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800872,SASTH46#,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800889,SASTH46#,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800898,SASTH46#,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800907,SASTH46#,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800916,SASTH46#,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800925,SASTH46#,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800934,SASTH46#,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800943,SASTH46#,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800952,SASTH46#,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800969,SASTH46#,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800978,SASTH46#,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800987,SASTH46#,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009800996,SASTH46#,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801005,SASTH46#,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801014,SASTH46#,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801023,SASTH46#,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801032,SASTH46#,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801049,SASTH46#,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801058,SASTH46#,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801067,SASTH46#,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801076,SASTH46#,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801085,SASTH46#,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801094,SASTH46#,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801103,SASTH46#,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801112,SASTH46#,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801129,SASTH46#,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801138,SASTH46#,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801147,SASTH46#,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801156,SASTH46#,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801165,SASTH46#,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801174,SASTH46#,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801183,SASTH46#,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801192,SASTH46#,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801209,SASTH46#,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801218,SASTH46#,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801227,SASTH46#,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801236,SASTH46#,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801245,SASTH46#,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801254,SASTH46#,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801263,SASTH46#,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801272,SASTH46#,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801289,SASTH46#,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801298,SASTH46#,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801307,SASTH46#,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801316,SASTH46#,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801325,SASTH46#,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801334,SASTH46#,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801343,SASTH46#,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801352,SASTH46#,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801369,SASTH46#,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801378,SASTH46#,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801387,SASTH46#,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801396,SASTH46#,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801405,SASTH46#,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801414,SASTH46#,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801423,SASTH46#,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801432,SASTH46#,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801449,SASTH46#,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801458,SASTH46#,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801467,SASTH46#,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801476,SASTH46#,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801485,SASTH46#,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801494,SASTH46#,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801503,SASTH46#,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801512,SASTH46#,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801529,SASTH46#,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801538,SASTH46#,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801547,SASTH46#,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801556,SASTH46#,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801565,SASTH46#,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801574,SASTH46#,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801583,SASTH46#,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801592,SASTH46#,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801609,SASTH46#,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801618,SASTH46#,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801627,SASTH46#,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801636,SASTH46#,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801645,SASTH46#,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801654,SASTH46#,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801663,SASTH46#,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801672,SASTH46#,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801689,SASTH46#,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801698,SASTH46#,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801707,SASTH46#,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801716,SASTH46#,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801725,SASTH46#,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801734,SASTH46#,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801743,SASTH46#,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801752,SASTH46#,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801769,SASTH46#,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801778,SASTH46#,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801787,SASTH46#,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801796,SASTH46#,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801805,SASTH46#,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801814,SASTH46#,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801823,SASTH46#,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801832,SASTH46#,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801849,SASTH46#,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801858,SASTH46#,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801867,SASTH46#,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801876,SASTH46#,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801885,SASTH46#,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801894,SASTH46#,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801903,SASTH46#,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801912,SASTH46#,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801929,SASTH46#,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801938,SASTH46#,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801947,SASTH46#,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801956,SASTH46#,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801965,SASTH46#,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801974,SASTH46#,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801983,SASTH46#,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801992,SASTH46#,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802009,SASTH46#,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802018,SASTH46#,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802027,SASTH46#,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802036,SASTH46#,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802045,SASTH46#,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802054,SASTH46#,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802063,SASTH46#,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802072,SASTH46#,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802089,SASTH46#,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802098,SASTH46#,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802107,SASTH46#,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802116,SASTH46#,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802125,SASTH46#,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802134,SASTH46#,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802143,SASTH46#,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802152,SASTH46#,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802169,SASTH46#,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802178,SASTH46#,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802187,SASTH46#,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802196,SASTH46#,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802205,SASTH46#,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802214,SASTH46#,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802223,SASTH46#,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802232,SASTH46#,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802249,SASTH46#,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802258,SASTH46#,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802267,SASTH46#,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802276,SASTH46#,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802285,SASTH46#,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802294,SASTH46#,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802303,SASTH46#,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802312,SASTH46#,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802329,SASTH46#,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802338,SASTH46#,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802347,SASTH46#,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802356,SASTH46#,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802365,SASTH46#,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802374,SASTH46#,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802383,SASTH46#,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802392,SASTH46#,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802409,SASTH46#,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802418,SASTH46#,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802427,SASTH46#,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802436,SASTH46#,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802445,SASTH46#,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802454,SASTH46#,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802463,SASTH46#,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:A247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A247"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/impor peserta ujian.xlsx
+++ b/temp_doc/impor peserta ujian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D1677-0E7F-0F4D-B2E0-DE39017E53E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8F4F6-CF02-D44B-9F95-695EEB647A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15380" xr2:uid="{27161CB0-D36A-224C-8430-01DF8F3BE240}"/>
   </bookViews>
@@ -41,742 +41,742 @@
     <t>username,password,firstname,lastname,email,cohort1</t>
   </si>
   <si>
-    <t>K0103009800018,SASTH46#,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800027,SASTH46#,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800036,SASTH46#,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800045,SASTH46#,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800054,SASTH46#,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800063,SASTH46#,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800072,SASTH46#,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800089,SASTH46#,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800098,SASTH46#,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800107,SASTH46#,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800116,SASTH46#,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800125,SASTH46#,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800134,SASTH46#,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800143,SASTH46#,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800152,SASTH46#,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800169,SASTH46#,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800178,SASTH46#,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800187,SASTH46#,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800196,SASTH46#,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800205,SASTH46#,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800214,SASTH46#,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800223,SASTH46#,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800232,SASTH46#,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800249,SASTH46#,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800258,SASTH46#,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800267,SASTH46#,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800276,SASTH46#,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800285,SASTH46#,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800294,SASTH46#,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800303,SASTH46#,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800312,SASTH46#,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800329,SASTH46#,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800338,SASTH46#,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800347,SASTH46#,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800356,SASTH46#,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800365,SASTH46#,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800374,SASTH46#,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800383,SASTH46#,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800392,SASTH46#,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800409,SASTH46#,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800418,SASTH46#,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800427,SASTH46#,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800436,SASTH46#,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800445,SASTH46#,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800454,SASTH46#,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800463,SASTH46#,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800472,SASTH46#,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800489,SASTH46#,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800498,SASTH46#,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800507,SASTH46#,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800516,SASTH46#,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800525,SASTH46#,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800534,SASTH46#,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800543,SASTH46#,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800552,SASTH46#,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800569,SASTH46#,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800578,SASTH46#,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800587,SASTH46#,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800596,SASTH46#,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800605,SASTH46#,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800614,SASTH46#,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800623,SASTH46#,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800632,SASTH46#,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800649,SASTH46#,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800658,SASTH46#,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800667,SASTH46#,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800676,SASTH46#,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800685,SASTH46#,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800694,SASTH46#,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800703,SASTH46#,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800712,SASTH46#,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800729,SASTH46#,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800738,SASTH46#,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800747,SASTH46#,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800756,SASTH46#,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800765,SASTH46#,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800774,SASTH46#,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800783,SASTH46#,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800792,SASTH46#,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800809,SASTH46#,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800818,SASTH46#,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800827,SASTH46#,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800836,SASTH46#,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800845,SASTH46#,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800854,SASTH46#,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800863,SASTH46#,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800872,SASTH46#,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800889,SASTH46#,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800898,SASTH46#,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800907,SASTH46#,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800916,SASTH46#,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800925,SASTH46#,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800934,SASTH46#,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800943,SASTH46#,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800952,SASTH46#,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800969,SASTH46#,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800978,SASTH46#,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800987,SASTH46#,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009800996,SASTH46#,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801005,SASTH46#,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801014,SASTH46#,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801023,SASTH46#,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801032,SASTH46#,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801049,SASTH46#,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801058,SASTH46#,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801067,SASTH46#,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801076,SASTH46#,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801085,SASTH46#,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801094,SASTH46#,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801103,SASTH46#,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801112,SASTH46#,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801129,SASTH46#,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801138,SASTH46#,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801147,SASTH46#,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801156,SASTH46#,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801165,SASTH46#,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801174,SASTH46#,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801183,SASTH46#,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801192,SASTH46#,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801209,SASTH46#,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801218,SASTH46#,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801227,SASTH46#,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801236,SASTH46#,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801245,SASTH46#,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801254,SASTH46#,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801263,SASTH46#,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801272,SASTH46#,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801289,SASTH46#,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801298,SASTH46#,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801307,SASTH46#,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801316,SASTH46#,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801325,SASTH46#,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801334,SASTH46#,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801343,SASTH46#,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801352,SASTH46#,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801369,SASTH46#,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801378,SASTH46#,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801387,SASTH46#,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801396,SASTH46#,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801405,SASTH46#,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801414,SASTH46#,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801423,SASTH46#,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801432,SASTH46#,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801449,SASTH46#,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801458,SASTH46#,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801467,SASTH46#,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801476,SASTH46#,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801485,SASTH46#,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801494,SASTH46#,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801503,SASTH46#,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801512,SASTH46#,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801529,SASTH46#,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801538,SASTH46#,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801547,SASTH46#,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801556,SASTH46#,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801565,SASTH46#,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801574,SASTH46#,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801583,SASTH46#,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801592,SASTH46#,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801609,SASTH46#,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801618,SASTH46#,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801627,SASTH46#,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801636,SASTH46#,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801645,SASTH46#,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801654,SASTH46#,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801663,SASTH46#,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801672,SASTH46#,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801689,SASTH46#,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801698,SASTH46#,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801707,SASTH46#,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801716,SASTH46#,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801725,SASTH46#,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801734,SASTH46#,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801743,SASTH46#,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801752,SASTH46#,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801769,SASTH46#,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801778,SASTH46#,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801787,SASTH46#,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801796,SASTH46#,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801805,SASTH46#,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801814,SASTH46#,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801823,SASTH46#,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801832,SASTH46#,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801849,SASTH46#,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801858,SASTH46#,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801867,SASTH46#,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801876,SASTH46#,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801885,SASTH46#,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801894,SASTH46#,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801903,SASTH46#,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801912,SASTH46#,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801929,SASTH46#,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801938,SASTH46#,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801947,SASTH46#,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801956,SASTH46#,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801965,SASTH46#,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801974,SASTH46#,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801983,SASTH46#,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801992,SASTH46#,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802009,SASTH46#,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802018,SASTH46#,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802027,SASTH46#,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802036,SASTH46#,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802045,SASTH46#,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802054,SASTH46#,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802063,SASTH46#,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802072,SASTH46#,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802089,SASTH46#,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802098,SASTH46#,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802107,SASTH46#,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802116,SASTH46#,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802125,SASTH46#,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802134,SASTH46#,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802143,SASTH46#,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802152,SASTH46#,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802169,SASTH46#,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802178,SASTH46#,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802187,SASTH46#,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802196,SASTH46#,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802205,SASTH46#,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802214,SASTH46#,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802223,SASTH46#,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802232,SASTH46#,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802249,SASTH46#,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802258,SASTH46#,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802267,SASTH46#,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802276,SASTH46#,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802285,SASTH46#,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802294,SASTH46#,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802303,SASTH46#,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802312,SASTH46#,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802329,SASTH46#,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802338,SASTH46#,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802347,SASTH46#,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802356,SASTH46#,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802365,SASTH46#,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802374,SASTH46#,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802383,SASTH46#,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802392,SASTH46#,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802409,SASTH46#,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802418,SASTH46#,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802427,SASTH46#,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802436,SASTH46#,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802445,SASTH46#,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802454,SASTH46#,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802463,SASTH46#,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</t>
+    <t>K0103009800018,SASTH46@,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800027,SASTH46@,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800036,SASTH46@,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800045,SASTH46@,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800054,SASTH46@,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800063,SASTH46@,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800072,SASTH46@,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800089,SASTH46@,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800098,SASTH46@,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800107,SASTH46@,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800116,SASTH46@,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800125,SASTH46@,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800134,SASTH46@,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800143,SASTH46@,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800152,SASTH46@,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800169,SASTH46@,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800178,SASTH46@,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800187,SASTH46@,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800196,SASTH46@,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800205,SASTH46@,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800214,SASTH46@,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800223,SASTH46@,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800232,SASTH46@,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800249,SASTH46@,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800258,SASTH46@,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800267,SASTH46@,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800276,SASTH46@,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800285,SASTH46@,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800294,SASTH46@,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800303,SASTH46@,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800312,SASTH46@,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800329,SASTH46@,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800338,SASTH46@,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800347,SASTH46@,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800356,SASTH46@,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800365,SASTH46@,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800374,SASTH46@,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800383,SASTH46@,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800392,SASTH46@,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800409,SASTH46@,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800418,SASTH46@,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800427,SASTH46@,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800436,SASTH46@,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800445,SASTH46@,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800454,SASTH46@,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800463,SASTH46@,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800472,SASTH46@,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800489,SASTH46@,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800498,SASTH46@,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800507,SASTH46@,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800516,SASTH46@,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800525,SASTH46@,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800534,SASTH46@,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800543,SASTH46@,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800552,SASTH46@,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800569,SASTH46@,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800578,SASTH46@,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800587,SASTH46@,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800596,SASTH46@,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800605,SASTH46@,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800614,SASTH46@,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800623,SASTH46@,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800632,SASTH46@,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800649,SASTH46@,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800658,SASTH46@,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800667,SASTH46@,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800676,SASTH46@,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800685,SASTH46@,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800694,SASTH46@,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800703,SASTH46@,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800712,SASTH46@,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800729,SASTH46@,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800738,SASTH46@,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800747,SASTH46@,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800756,SASTH46@,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800765,SASTH46@,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800774,SASTH46@,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800783,SASTH46@,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800792,SASTH46@,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800809,SASTH46@,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800818,SASTH46@,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800827,SASTH46@,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800836,SASTH46@,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800845,SASTH46@,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800854,SASTH46@,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800863,SASTH46@,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800872,SASTH46@,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800889,SASTH46@,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800898,SASTH46@,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800907,SASTH46@,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800916,SASTH46@,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800925,SASTH46@,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800934,SASTH46@,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800943,SASTH46@,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800952,SASTH46@,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800969,SASTH46@,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800978,SASTH46@,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800987,SASTH46@,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009800996,SASTH46@,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801005,SASTH46@,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801014,SASTH46@,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801023,SASTH46@,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801032,SASTH46@,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801049,SASTH46@,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801058,SASTH46@,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801067,SASTH46@,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801076,SASTH46@,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801085,SASTH46@,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801094,SASTH46@,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801103,SASTH46@,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801112,SASTH46@,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801129,SASTH46@,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801138,SASTH46@,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801147,SASTH46@,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801156,SASTH46@,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801165,SASTH46@,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801174,SASTH46@,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801183,SASTH46@,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801192,SASTH46@,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801209,SASTH46@,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801218,SASTH46@,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801227,SASTH46@,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801236,SASTH46@,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801245,SASTH46@,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801254,SASTH46@,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801263,SASTH46@,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801272,SASTH46@,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801289,SASTH46@,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801298,SASTH46@,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801307,SASTH46@,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801316,SASTH46@,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801325,SASTH46@,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801334,SASTH46@,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801343,SASTH46@,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801352,SASTH46@,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801369,SASTH46@,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801378,SASTH46@,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801387,SASTH46@,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801396,SASTH46@,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801405,SASTH46@,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801414,SASTH46@,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801423,SASTH46@,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801432,SASTH46@,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801449,SASTH46@,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801458,SASTH46@,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801467,SASTH46@,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801476,SASTH46@,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801485,SASTH46@,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801494,SASTH46@,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801503,SASTH46@,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801512,SASTH46@,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801529,SASTH46@,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801538,SASTH46@,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801547,SASTH46@,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801556,SASTH46@,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801565,SASTH46@,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801574,SASTH46@,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801583,SASTH46@,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801592,SASTH46@,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801609,SASTH46@,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801618,SASTH46@,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801627,SASTH46@,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801636,SASTH46@,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801645,SASTH46@,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801654,SASTH46@,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801663,SASTH46@,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801672,SASTH46@,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801689,SASTH46@,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801698,SASTH46@,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801707,SASTH46@,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801716,SASTH46@,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801725,SASTH46@,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801734,SASTH46@,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801743,SASTH46@,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801752,SASTH46@,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801769,SASTH46@,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801778,SASTH46@,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801787,SASTH46@,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801796,SASTH46@,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801805,SASTH46@,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801814,SASTH46@,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801823,SASTH46@,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801832,SASTH46@,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801849,SASTH46@,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801858,SASTH46@,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801867,SASTH46@,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801876,SASTH46@,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801885,SASTH46@,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801894,SASTH46@,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801903,SASTH46@,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801912,SASTH46@,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801929,SASTH46@,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801938,SASTH46@,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801947,SASTH46@,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801956,SASTH46@,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801965,SASTH46@,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801974,SASTH46@,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801983,SASTH46@,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801992,SASTH46@,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802009,SASTH46@,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802018,SASTH46@,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802027,SASTH46@,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802036,SASTH46@,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802045,SASTH46@,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802054,SASTH46@,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802063,SASTH46@,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802072,SASTH46@,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802089,SASTH46@,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802098,SASTH46@,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802107,SASTH46@,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802116,SASTH46@,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802125,SASTH46@,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802134,SASTH46@,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802143,SASTH46@,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802152,SASTH46@,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802169,SASTH46@,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802178,SASTH46@,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802187,SASTH46@,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802196,SASTH46@,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802205,SASTH46@,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802214,SASTH46@,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802223,SASTH46@,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802232,SASTH46@,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802249,SASTH46@,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802258,SASTH46@,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802267,SASTH46@,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802276,SASTH46@,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802285,SASTH46@,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802294,SASTH46@,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802303,SASTH46@,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802312,SASTH46@,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802329,SASTH46@,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802338,SASTH46@,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802347,SASTH46@,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802356,SASTH46@,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802365,SASTH46@,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802374,SASTH46@,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802383,SASTH46@,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802392,SASTH46@,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802409,SASTH46@,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802418,SASTH46@,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802427,SASTH46@,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802436,SASTH46@,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802445,SASTH46@,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802454,SASTH46@,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802463,SASTH46@,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</t>
   </si>
 </sst>
 </file>

--- a/temp_doc/impor peserta ujian.xlsx
+++ b/temp_doc/impor peserta ujian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8F4F6-CF02-D44B-9F95-695EEB647A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12419099-42FA-A947-9F60-9C3F11D4BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15380" xr2:uid="{27161CB0-D36A-224C-8430-01DF8F3BE240}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{27161CB0-D36A-224C-8430-01DF8F3BE240}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,742 +41,742 @@
     <t>username,password,firstname,lastname,email,cohort1</t>
   </si>
   <si>
-    <t>K0103009800018,SASTH46@,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800027,SASTH46@,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800036,SASTH46@,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800045,SASTH46@,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800054,SASTH46@,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800063,SASTH46@,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800072,SASTH46@,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800089,SASTH46@,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800098,SASTH46@,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800107,SASTH46@,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800116,SASTH46@,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800125,SASTH46@,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800134,SASTH46@,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800143,SASTH46@,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800152,SASTH46@,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800169,SASTH46@,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800178,SASTH46@,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800187,SASTH46@,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800196,SASTH46@,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800205,SASTH46@,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800214,SASTH46@,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800223,SASTH46@,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800232,SASTH46@,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800249,SASTH46@,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800258,SASTH46@,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800267,SASTH46@,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800276,SASTH46@,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800285,SASTH46@,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800294,SASTH46@,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800303,SASTH46@,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800312,SASTH46@,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</t>
-  </si>
-  <si>
-    <t>K0103009800329,SASTH46@,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800338,SASTH46@,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800347,SASTH46@,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800356,SASTH46@,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800365,SASTH46@,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800374,SASTH46@,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800383,SASTH46@,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800392,SASTH46@,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800409,SASTH46@,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800418,SASTH46@,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800427,SASTH46@,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800436,SASTH46@,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800445,SASTH46@,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800454,SASTH46@,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800463,SASTH46@,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800472,SASTH46@,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800489,SASTH46@,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800498,SASTH46@,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800507,SASTH46@,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800516,SASTH46@,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800525,SASTH46@,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800534,SASTH46@,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800543,SASTH46@,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800552,SASTH46@,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800569,SASTH46@,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800578,SASTH46@,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800587,SASTH46@,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800596,SASTH46@,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800605,SASTH46@,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800614,SASTH46@,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800623,SASTH46@,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800632,SASTH46@,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800649,SASTH46@,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800658,SASTH46@,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800667,SASTH46@,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</t>
-  </si>
-  <si>
-    <t>K0103009800676,SASTH46@,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800685,SASTH46@,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800694,SASTH46@,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800703,SASTH46@,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800712,SASTH46@,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800729,SASTH46@,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800738,SASTH46@,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800747,SASTH46@,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800756,SASTH46@,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800765,SASTH46@,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800774,SASTH46@,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800783,SASTH46@,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800792,SASTH46@,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800809,SASTH46@,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800818,SASTH46@,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800827,SASTH46@,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800836,SASTH46@,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800845,SASTH46@,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800854,SASTH46@,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800863,SASTH46@,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800872,SASTH46@,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800889,SASTH46@,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800898,SASTH46@,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800907,SASTH46@,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800916,SASTH46@,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800925,SASTH46@,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800934,SASTH46@,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800943,SASTH46@,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800952,SASTH46@,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800969,SASTH46@,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800978,SASTH46@,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</t>
-  </si>
-  <si>
-    <t>K0103009800987,SASTH46@,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009800996,SASTH46@,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801005,SASTH46@,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801014,SASTH46@,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801023,SASTH46@,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801032,SASTH46@,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801049,SASTH46@,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801058,SASTH46@,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801067,SASTH46@,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801076,SASTH46@,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801085,SASTH46@,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801094,SASTH46@,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801103,SASTH46@,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801112,SASTH46@,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801129,SASTH46@,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801138,SASTH46@,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801147,SASTH46@,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801156,SASTH46@,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801165,SASTH46@,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801174,SASTH46@,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801183,SASTH46@,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801192,SASTH46@,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801209,SASTH46@,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801218,SASTH46@,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801227,SASTH46@,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</t>
-  </si>
-  <si>
-    <t>K0103009801236,SASTH46@,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801245,SASTH46@,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801254,SASTH46@,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801263,SASTH46@,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801272,SASTH46@,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801289,SASTH46@,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801298,SASTH46@,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801307,SASTH46@,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801316,SASTH46@,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801325,SASTH46@,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801334,SASTH46@,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801343,SASTH46@,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801352,SASTH46@,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801369,SASTH46@,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801378,SASTH46@,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801387,SASTH46@,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801396,SASTH46@,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801405,SASTH46@,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801414,SASTH46@,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801423,SASTH46@,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801432,SASTH46@,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801449,SASTH46@,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801458,SASTH46@,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</t>
-  </si>
-  <si>
-    <t>K0103009801467,SASTH46@,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801476,SASTH46@,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801485,SASTH46@,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801494,SASTH46@,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801503,SASTH46@,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801512,SASTH46@,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801529,SASTH46@,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801538,SASTH46@,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801547,SASTH46@,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801556,SASTH46@,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801565,SASTH46@,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801574,SASTH46@,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801583,SASTH46@,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801592,SASTH46@,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801609,SASTH46@,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801618,SASTH46@,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801627,SASTH46@,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801636,SASTH46@,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801645,SASTH46@,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801654,SASTH46@,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801663,SASTH46@,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801672,SASTH46@,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801689,SASTH46@,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801698,SASTH46@,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801707,SASTH46@,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801716,SASTH46@,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801725,SASTH46@,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801734,SASTH46@,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801743,SASTH46@,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801752,SASTH46@,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</t>
-  </si>
-  <si>
-    <t>K0103009801769,SASTH46@,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801778,SASTH46@,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801787,SASTH46@,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801796,SASTH46@,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801805,SASTH46@,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801814,SASTH46@,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801823,SASTH46@,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801832,SASTH46@,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801849,SASTH46@,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801858,SASTH46@,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801867,SASTH46@,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801876,SASTH46@,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801885,SASTH46@,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801894,SASTH46@,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801903,SASTH46@,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801912,SASTH46@,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801929,SASTH46@,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801938,SASTH46@,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801947,SASTH46@,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801956,SASTH46@,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801965,SASTH46@,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801974,SASTH46@,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801983,SASTH46@,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009801992,SASTH46@,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802009,SASTH46@,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802018,SASTH46@,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802027,SASTH46@,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802036,SASTH46@,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802045,SASTH46@,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802054,SASTH46@,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802063,SASTH46@,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802072,SASTH46@,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</t>
-  </si>
-  <si>
-    <t>K0103009802089,SASTH46@,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802098,SASTH46@,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802107,SASTH46@,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802116,SASTH46@,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802125,SASTH46@,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802134,SASTH46@,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802143,SASTH46@,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802152,SASTH46@,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802169,SASTH46@,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802178,SASTH46@,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802187,SASTH46@,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802196,SASTH46@,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802205,SASTH46@,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802214,SASTH46@,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802223,SASTH46@,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802232,SASTH46@,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802249,SASTH46@,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802258,SASTH46@,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802267,SASTH46@,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802276,SASTH46@,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802285,SASTH46@,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802294,SASTH46@,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802303,SASTH46@,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802312,SASTH46@,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802329,SASTH46@,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802338,SASTH46@,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802347,SASTH46@,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802356,SASTH46@,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802365,SASTH46@,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802374,SASTH46@,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802383,SASTH46@,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802392,SASTH46@,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802409,SASTH46@,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802418,SASTH46@,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802427,SASTH46@,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802436,SASTH46@,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802445,SASTH46@,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802454,SASTH46@,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</t>
-  </si>
-  <si>
-    <t>K0103009802463,SASTH46@,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</t>
+    <t>K0103009800018,SASTH46,AGUNG RAMADHAN,(XII TJKT 1),K0103009800018@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800027,SASTH46,AHMAD AGUS TAWAKAL,(XII TJKT 1),K0103009800027@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800036,SASTH46,ALFIAN FEBRIYANTO,(XII TJKT 1),K0103009800036@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800045,SASTH46,ALFIAN NUR ILHAM,(XII TJKT 1),K0103009800045@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800054,SASTH46,ALPIN RAMADAN SETIAWAN,(XII TJKT 1),K0103009800054@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800063,SASTH46,DENTA FITRI NOVIANI,(XII TJKT 1),K0103009800063@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800072,SASTH46,EGI KURNIA,(XII TJKT 1),K0103009800072@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800089,SASTH46,EGNER CONSTANTIN,(XII TJKT 1),K0103009800089@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800098,SASTH46,ERICH JALEMBA JUNIARTA,(XII TJKT 1),K0103009800098@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800107,SASTH46,FADLY ERLANGGA,(XII TJKT 1),K0103009800107@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800116,SASTH46,FATHYA AULIA,(XII TJKT 1),K0103009800116@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800125,SASTH46,FIKHAR HADISAPUTRA,(XII TJKT 1),K0103009800125@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800134,SASTH46,FRANS LEONARDO HADIWINATA,(XII TJKT 1),K0103009800134@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800143,SASTH46,GILANG MAULANA AKBAR,(XII TJKT 1),K0103009800143@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800152,SASTH46,HAFIDZ SYAHPUTRO,(XII TJKT 1),K0103009800152@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800169,SASTH46,KELVIN OKTA RAMADHAN,(XII TJKT 1),K0103009800169@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800178,SASTH46,MAULANA IKSAN,(XII TJKT 1),K0103009800178@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800187,SASTH46,MOHAMAD RIZKI,(XII TJKT 1),K0103009800187@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800196,SASTH46,MUHAMAD SUBASTIAN,(XII TJKT 1),K0103009800196@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800205,SASTH46,MUHAMMAD ANGGI SAPUTRA,(XII TJKT 1),K0103009800205@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800214,SASTH46,MUHAMMAD NUR ARIFIN,(XII TJKT 1),K0103009800214@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800223,SASTH46,MUHAMMAD RIZKY AL AKBAR,(XII TJKT 1),K0103009800223@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800232,SASTH46,NOVAL RAMADAN,(XII TJKT 1),K0103009800232@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800249,SASTH46,NOVEL SYAHPUTRA HALIM,(XII TJKT 1),K0103009800249@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800258,SASTH46,PANJI RAHMADI,(XII TJKT 1),K0103009800258@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800267,SASTH46,RADIS SETIAWAN,(XII TJKT 1),K0103009800267@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800276,SASTH46,RAFA MAULANA ARDIANSYAH,(XII TJKT 1),K0103009800276@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800285,SASTH46,RAFLI AGUNG PRAYOGA,(XII TJKT 1),K0103009800285@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800294,SASTH46,SIGIT NURCAHYONO,(XII TJKT 1),K0103009800294@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800303,SASTH46,TYO RIYADI SYAPUTRA,(XII TJKT 1),K0103009800303@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800312,SASTH46,YULIO LUKAS ADRIANO HUTAGAOL,(XII TJKT 1),K0103009800312@gmail.com,XII TJKT 1</t>
+  </si>
+  <si>
+    <t>K0103009800329,SASTH46,ADE IRSAD ABIDIN,(XII TJKT 2),K0103009800329@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800338,SASTH46,AFRIZAL ARDIANSYAH,(XII TJKT 2),K0103009800338@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800347,SASTH46,AHMAD NUR MUDZAKI,(XII TJKT 2),K0103009800347@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800356,SASTH46,ALBASRAH MOHAMAD SALEH RAGO,(XII TJKT 2),K0103009800356@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800365,SASTH46,ALDI AWALUDIN,(XII TJKT 2),K0103009800365@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800374,SASTH46,ANDIKA,(XII TJKT 2),K0103009800374@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800383,SASTH46,ARDESTA KURNIAWAN,(XII TJKT 2),K0103009800383@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800392,SASTH46,ARDI DANU ANGGARA,(XII TJKT 2),K0103009800392@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800409,SASTH46,ARIEL ILHAMI,(XII TJKT 2),K0103009800409@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800418,SASTH46,BAYU SAPUTRA,(XII TJKT 2),K0103009800418@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800427,SASTH46,DAMARUDIN,(XII TJKT 2),K0103009800427@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800436,SASTH46,DEDI MARDIYANSAH,(XII TJKT 2),K0103009800436@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800445,SASTH46,DEVFRAN ADITYA SUHERNO PUTRA,(XII TJKT 2),K0103009800445@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800454,SASTH46,DHIMAS KURNIAWAN BASORI,(XII TJKT 2),K0103009800454@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800463,SASTH46,DIKI RAMADAN,(XII TJKT 2),K0103009800463@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800472,SASTH46,FAJAR NUGRAHA,(XII TJKT 2),K0103009800472@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800489,SASTH46,FIKRI FAHREZA,(XII TJKT 2),K0103009800489@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800498,SASTH46,FIRMANSYAH,(XII TJKT 2),K0103009800498@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800507,SASTH46,HABIB SUF'YAN FADILLAH,(XII TJKT 2),K0103009800507@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800516,SASTH46,HAIKAL FIKRI NURWANTO,(XII TJKT 2),K0103009800516@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800525,SASTH46,I PT.GALIHANDRA REVA ULUM DINATA,(XII TJKT 2),K0103009800525@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800534,SASTH46,ILHAM RAHMATTULLOH,(XII TJKT 2),K0103009800534@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800543,SASTH46,INDAH FAAKHIRA SEBASTIAN,(XII TJKT 2),K0103009800543@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800552,SASTH46,KEFIN HIDAYAT,(XII TJKT 2),K0103009800552@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800569,SASTH46,MUHAMAD ARDIANSYAH,(XII TJKT 2),K0103009800569@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800578,SASTH46,MUHAMMAD MAULANA RAMDHANI,(XII TJKT 2),K0103009800578@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800587,SASTH46,MUHAMMAD NANDA FIRMANSYAH,(XII TJKT 2),K0103009800587@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800596,SASTH46,MUHAMMAD RIFKI RABBANI,(XII TJKT 2),K0103009800596@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800605,SASTH46,NADIA NURLITA,(XII TJKT 2),K0103009800605@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800614,SASTH46,PINDY AUGY SEPTIANU PUTRA,(XII TJKT 2),K0103009800614@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800623,SASTH46,RIFQI AZHAR SAPUTRA,(XII TJKT 2),K0103009800623@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800632,SASTH46,RIZKY BAGASKORO,(XII TJKT 2),K0103009800632@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800649,SASTH46,ROFIQY MIRYAL AL MURTADHA,(XII TJKT 2),K0103009800649@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800658,SASTH46,SATRIAWAN TRIE SAPUTRA,(XII TJKT 2),K0103009800658@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800667,SASTH46,SUTINAH,(XII TJKT 2),K0103009800667@gmail.com,XII TJKT 2</t>
+  </si>
+  <si>
+    <t>K0103009800676,SASTH46,AHMAD SAPUTRA,(XII TJKT 3),K0103009800676@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800685,SASTH46,ANDYKA PUTRA PRASETYA,(XII TJKT 3),K0103009800685@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800694,SASTH46,ANIS TIARAWATI,(XII TJKT 3),K0103009800694@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800703,SASTH46,ARMANDA PUTRA,(XII TJKT 3),K0103009800703@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800712,SASTH46,CHANDRA ANDIKA,(XII TJKT 3),K0103009800712@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800729,SASTH46,DAVI TRISNA PRASETYA,(XII TJKT 3),K0103009800729@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800738,SASTH46,DAVID HERMANSYAH,(XII TJKT 3),K0103009800738@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800747,SASTH46,DIAH SINTIA,(XII TJKT 3),K0103009800747@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800756,SASTH46,FABRIAN AFRIANSYAH,(XII TJKT 3),K0103009800756@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800765,SASTH46,FARIJ ASHIDIQI,(XII TJKT 3),K0103009800765@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800774,SASTH46,FELIX ADIKA,(XII TJKT 3),K0103009800774@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800783,SASTH46,FICRI CHOIRUL IMAM,(XII TJKT 3),K0103009800783@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800792,SASTH46,FIRGIE HAFIANSYAH FAHREVI,(XII TJKT 3),K0103009800792@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800809,SASTH46,GAFARA EKA FAHRIZA,(XII TJKT 3),K0103009800809@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800818,SASTH46,GHUFRON KHAIRULLAH,(XII TJKT 3),K0103009800818@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800827,SASTH46,KHARENAL ARDIANTONY,(XII TJKT 3),K0103009800827@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800836,SASTH46,MUHAMAD APRIANSYAH,(XII TJKT 3),K0103009800836@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800845,SASTH46,MUHAMAD CHAIRIEL,(XII TJKT 3),K0103009800845@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800854,SASTH46,MUHAMAD RIZKY,(XII TJKT 3),K0103009800854@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800863,SASTH46,MUHAMAD RIZKY FARIZAH,(XII TJKT 3),K0103009800863@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800872,SASTH46,MUHAMMAD AFDANY PUTRA WIJAYA,(XII TJKT 3),K0103009800872@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800889,SASTH46,MUHAMMAD ALFARIZA,(XII TJKT 3),K0103009800889@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800898,SASTH46,MUHAMMAD REZA BAGUS SAPUTRA,(XII TJKT 3),K0103009800898@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800907,SASTH46,MUHAMMAD RISKY,(XII TJKT 3),K0103009800907@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800916,SASTH46,NOVALLINO,(XII TJKT 3),K0103009800916@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800925,SASTH46,RAFLY RAMADHAN LESMANA,(XII TJKT 3),K0103009800925@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800934,SASTH46,RIFQI FADILLA DWIKA,(XII TJKT 3),K0103009800934@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800943,SASTH46,RISVAL ANGGRA RESTA,(XII TJKT 3),K0103009800943@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800952,SASTH46,SANDY PUTRA,(XII TJKT 3),K0103009800952@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800969,SASTH46,SYAHRIL SUGANDA SAPUTRA,(XII TJKT 3),K0103009800969@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800978,SASTH46,TUBAGUS ABU BAKAR ZEIN,(XII TJKT 3),K0103009800978@gmail.com,XII TJKT 3</t>
+  </si>
+  <si>
+    <t>K0103009800987,SASTH46,ADITYA NURUL FIKRI,(XII AKL 1),K0103009800987@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009800996,SASTH46,ALIYA INDRIYANI PUTRI,(XII AKL 1),K0103009800996@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801005,SASTH46,ALYA NASYWA KHAERANI,(XII AKL 1),K0103009801005@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801014,SASTH46,AMRAN DANY,(XII AKL 1),K0103009801014@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801023,SASTH46,BAGUS ARIEF SAPUTRA,(XII AKL 1),K0103009801023@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801032,SASTH46,CATERINE NATALIA TEJA,(XII AKL 1),K0103009801032@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801049,SASTH46,CICI HERDIANTI,(XII AKL 1),K0103009801049@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801058,SASTH46,DAVID UMAR HAMZAH,(XII AKL 1),K0103009801058@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801067,SASTH46,DHEASY NOVITA KUSUMA YETI,(XII AKL 1),K0103009801067@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801076,SASTH46,FERI HIRAWAN,(XII AKL 1),K0103009801076@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801085,SASTH46,INDI NOVI TRIANI,(XII AKL 1),K0103009801085@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801094,SASTH46,INTAN HESTIYANA,(XII AKL 1),K0103009801094@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801103,SASTH46,MARCEL EDHI SUTIKNA,(XII AKL 1),K0103009801103@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801112,SASTH46,MUHAMMAD RIFQY SAPUTRA,(XII AKL 1),K0103009801112@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801129,SASTH46,NABILAH INTAN NURAINI,(XII AKL 1),K0103009801129@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801138,SASTH46,NAILATUSY ARIBAH TASIMA,(XII AKL 1),K0103009801138@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801147,SASTH46,NATASYA ANANDA SANTOSO,(XII AKL 1),K0103009801147@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801156,SASTH46,NAZWA AULIA SALSABILA,(XII AKL 1),K0103009801156@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801165,SASTH46,NIDA KHOIRURRAHMAH,(XII AKL 1),K0103009801165@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801174,SASTH46,RAMANDA OKTAVIANI,(XII AKL 1),K0103009801174@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801183,SASTH46,RAMDZAN MULIAWAN TRAH SAPUTRA,(XII AKL 1),K0103009801183@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801192,SASTH46,SADIAH,(XII AKL 1),K0103009801192@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801209,SASTH46,SHERREN FEBRIANY,(XII AKL 1),K0103009801209@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801218,SASTH46,STEVANI PUTRI WIJAYA,(XII AKL 1),K0103009801218@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801227,SASTH46,VANI HARIYANTI,(XII AKL 1),K0103009801227@gmail.com,XII AKL 1</t>
+  </si>
+  <si>
+    <t>K0103009801236,SASTH46,ADITYA PRATAMA,(XII AKL 2),K0103009801236@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801245,SASTH46,ADUTA BAYHAQI,(XII AKL 2),K0103009801245@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801254,SASTH46,AHMAD RIDWAN,(XII AKL 2),K0103009801254@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801263,SASTH46,ANIN DWI RAHMAWATI,(XII AKL 2),K0103009801263@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801272,SASTH46,AULIA DZURUN NAFIS,(XII AKL 2),K0103009801272@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801289,SASTH46,CHERRYL DEANDYA KHALISHAH,(XII AKL 2),K0103009801289@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801298,SASTH46,DEWI PURNAMA SARI,(XII AKL 2),K0103009801298@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801307,SASTH46,DWI PRAMBANDARI,(XII AKL 2),K0103009801307@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801316,SASTH46,ERIKA ILMANISA,(XII AKL 2),K0103009801316@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801325,SASTH46,INEU SANTIKA,(XII AKL 2),K0103009801325@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801334,SASTH46,IRWANSYAH,(XII AKL 2),K0103009801334@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801343,SASTH46,MUHAMMAD YUSUF FADLAN,(XII AKL 2),K0103009801343@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801352,SASTH46,NANDA AULYA ARIYANDI,(XII AKL 2),K0103009801352@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801369,SASTH46,NAURAH SASMITA PUTRI,(XII AKL 2),K0103009801369@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801378,SASTH46,NAYLA PUTRI RAHARI,(XII AKL 2),K0103009801378@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801387,SASTH46,NISA UL HASANAH,(XII AKL 2),K0103009801387@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801396,SASTH46,ORYSA SATIVA,(XII AKL 2),K0103009801396@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801405,SASTH46,RIVAL WAHYUDIN,(XII AKL 2),K0103009801405@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801414,SASTH46,RIZKY DWI KARNADI,(XII AKL 2),K0103009801414@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801423,SASTH46,SARAH AULIYA,(XII AKL 2),K0103009801423@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801432,SASTH46,SELO GIRI ADJI PANGESTU,(XII AKL 2),K0103009801432@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801449,SASTH46,WULAN SUCI PUSPITASARI,(XII AKL 2),K0103009801449@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801458,SASTH46,WULAN TARI,(XII AKL 2),K0103009801458@gmail.com,XII AKL 2</t>
+  </si>
+  <si>
+    <t>K0103009801467,SASTH46,ADELIA ANGRAINI ZAHRA,(XII MPLB 1),K0103009801467@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801476,SASTH46,AGNES PASKA TAMBUNAN,(XII MPLB 1),K0103009801476@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801485,SASTH46,ALIVIA SUCI RAMADHANI,(XII MPLB 1),K0103009801485@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801494,SASTH46,AMANDA PUTRI SITIO,(XII MPLB 1),K0103009801494@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801503,SASTH46,AMANDA YULIA PERMATA SARI,(XII MPLB 1),K0103009801503@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801512,SASTH46,AWALIA PUTRI,(XII MPLB 1),K0103009801512@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801529,SASTH46,DELLY PUSPITA SARI,(XII MPLB 1),K0103009801529@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801538,SASTH46,DEWI SHINTA WIJAYA,(XII MPLB 1),K0103009801538@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801547,SASTH46,DIFA' AISYAH PUTRI,(XII MPLB 1),K0103009801547@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801556,SASTH46,DINDA SYAFITRI,(XII MPLB 1),K0103009801556@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801565,SASTH46,ELSA APRILIA SAFITRI,(XII MPLB 1),K0103009801565@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801574,SASTH46,FANNY DWI MUNAENI,(XII MPLB 1),K0103009801574@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801583,SASTH46,FRIDA SIWI MAYSAWATI,(XII MPLB 1),K0103009801583@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801592,SASTH46,HARTANTI WIJAYA,(XII MPLB 1),K0103009801592@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801609,SASTH46,JESICA TRISIA PUTRI,(XII MPLB 1),K0103009801609@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801618,SASTH46,KALISA NABILA,(XII MPLB 1),K0103009801618@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801627,SASTH46,MARSELLINA,(XII MPLB 1),K0103009801627@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801636,SASTH46,MEI RIYANTI,(XII MPLB 1),K0103009801636@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801645,SASTH46,NABILA MUKHTAR,(XII MPLB 1),K0103009801645@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801654,SASTH46,NAGITA ZAHARANI,(XII MPLB 1),K0103009801654@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801663,SASTH46,NAJWA INDAH LESTARI,(XII MPLB 1),K0103009801663@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801672,SASTH46,NATASYA ALAWIYAH,(XII MPLB 1),K0103009801672@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801689,SASTH46,NURUL ZHAHRANI,(XII MPLB 1),K0103009801689@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801698,SASTH46,REVALIA RAHMAWATI,(XII MPLB 1),K0103009801698@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801707,SASTH46,RISTY INDRIANI PUTRI,(XII MPLB 1),K0103009801707@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801716,SASTH46,SILVIANA NUGRAHA,(XII MPLB 1),K0103009801716@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801725,SASTH46,SILVIE,(XII MPLB 1),K0103009801725@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801734,SASTH46,SITI TWANTI,(XII MPLB 1),K0103009801734@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801743,SASTH46,SOFHIANA PUTRI SUTRISNO,(XII MPLB 1),K0103009801743@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801752,SASTH46,VIVIAN CORNELIA SETIAWAN,(XII MPLB 1),K0103009801752@gmail.com,XII MPLB 1</t>
+  </si>
+  <si>
+    <t>K0103009801769,SASTH46,ADELIA ZAHRA KHIRANA,(XII MPLB 2),K0103009801769@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801778,SASTH46,AMANDA NURMALA,(XII MPLB 2),K0103009801778@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801787,SASTH46,ANIS SYAHIIDAH MEILANI,(XII MPLB 2),K0103009801787@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801796,SASTH46,ANISSA,(XII MPLB 2),K0103009801796@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801805,SASTH46,ASHA SHARA APRIANA,(XII MPLB 2),K0103009801805@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801814,SASTH46,AZ ZAHRA ZIDNI NAYSABILLA,(XII MPLB 2),K0103009801814@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801823,SASTH46,DEA RAHMA ALYA,(XII MPLB 2),K0103009801823@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801832,SASTH46,DHEA RAHMAWATI,(XII MPLB 2),K0103009801832@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801849,SASTH46,FIKA DAVILA,(XII MPLB 2),K0103009801849@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801858,SASTH46,FLORA CINDY AULIA,(XII MPLB 2),K0103009801858@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801867,SASTH46,IRMA SEPTIANI IRWANSYAH,(XII MPLB 2),K0103009801867@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801876,SASTH46,KHUSNUL KHOTIMATUL ZAHRA,(XII MPLB 2),K0103009801876@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801885,SASTH46,NABILA PUTRI SETIAWAN,(XII MPLB 2),K0103009801885@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801894,SASTH46,NABILA SEPTIYANA DEWI,(XII MPLB 2),K0103009801894@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801903,SASTH46,NABYLA,(XII MPLB 2),K0103009801903@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801912,SASTH46,NANDITA PUTRI RAMADHANI,(XII MPLB 2),K0103009801912@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801929,SASTH46,NEZA CHARLITA,(XII MPLB 2),K0103009801929@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801938,SASTH46,NIMAS NUR YAUMI,(XII MPLB 2),K0103009801938@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801947,SASTH46,NIRMALASARI,(XII MPLB 2),K0103009801947@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801956,SASTH46,NOVIA AMANDA,(XII MPLB 2),K0103009801956@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801965,SASTH46,NURHIKMAH,(XII MPLB 2),K0103009801965@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801974,SASTH46,PUTRI AYU WULANDARI,(XII MPLB 2),K0103009801974@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801983,SASTH46,RATNA DILAH,(XII MPLB 2),K0103009801983@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009801992,SASTH46,RINI NURBAITI,(XII MPLB 2),K0103009801992@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802009,SASTH46,RIYANTI WAFIQ AZIZAH,(XII MPLB 2),K0103009802009@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802018,SASTH46,SALSABILA NURUL FITRI,(XII MPLB 2),K0103009802018@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802027,SASTH46,SITI MUTIARA WARDAH,(XII MPLB 2),K0103009802027@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802036,SASTH46,SYAIRA RANI ASMARI PUTRI,(XII MPLB 2),K0103009802036@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802045,SASTH46,TASYA MUT'ALIFAH,(XII MPLB 2),K0103009802045@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802054,SASTH46,TRIA KARTINI WAHYUDI,(XII MPLB 2),K0103009802054@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802063,SASTH46,WINDA AULIA,(XII MPLB 2),K0103009802063@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802072,SASTH46,WINDA RESTU FALIHA,(XII MPLB 2),K0103009802072@gmail.com,XII MPLB 2</t>
+  </si>
+  <si>
+    <t>K0103009802089,SASTH46,AKBAR SADEWA,(XII PM),K0103009802089@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802098,SASTH46,ANDHIKA DIAN SAPUTRA,(XII PM),K0103009802098@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802107,SASTH46,ANDRE YULIANTO,(XII PM),K0103009802107@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802116,SASTH46,ARDIONA ATTA SAPUTRA,(XII PM),K0103009802116@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802125,SASTH46,BAHRUDIN SIROTH,(XII PM),K0103009802125@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802134,SASTH46,BRILLIANT MUHAMMAD PRANAYA,(XII PM),K0103009802134@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802143,SASTH46,CHINDY WULAN SARI,(XII PM),K0103009802143@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802152,SASTH46,DAYDAEL RAHMAT PRIHARTONO,(XII PM),K0103009802152@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802169,SASTH46,DEVINNA CHRISTIANAH,(XII PM),K0103009802169@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802178,SASTH46,DIANA FEBRIASTUTI,(XII PM),K0103009802178@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802187,SASTH46,DIKI MUZALFA,(XII PM),K0103009802187@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802196,SASTH46,DINI AULIA,(XII PM),K0103009802196@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802205,SASTH46,FAKHRIY PUTRA MAULANA,(XII PM),K0103009802205@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802214,SASTH46,FIONA FASTAG FARA,(XII PM),K0103009802214@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802223,SASTH46,GURUH PRIYANDONO,(XII PM),K0103009802223@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802232,SASTH46,HAFISTH IKHSAN MAULANA,(XII PM),K0103009802232@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802249,SASTH46,JUNEDI,(XII PM),K0103009802249@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802258,SASTH46,KEISYA DWI AMELIA,(XII PM),K0103009802258@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802267,SASTH46,MARCELLINO ADI PRATAMA,(XII PM),K0103009802267@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802276,SASTH46,MIFTAHUL SAPUTRA,(XII PM),K0103009802276@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802285,SASTH46,MUHAMAD RAKA HADI SANJAYA,(XII PM),K0103009802285@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802294,SASTH46,MUHAMAD RIANSYAH,(XII PM),K0103009802294@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802303,SASTH46,MUHAMAD ROZAK,(XII PM),K0103009802303@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802312,SASTH46,MUHAMMAD DAFFA,(XII PM),K0103009802312@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802329,SASTH46,MUHAMMAD DAFFA ANSORI,(XII PM),K0103009802329@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802338,SASTH46,MUHAMMAD SYAH HABIANTO,(XII PM),K0103009802338@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802347,SASTH46,NUR KHOLIS HENDAR,(XII PM),K0103009802347@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802356,SASTH46,PENDI NUR SETIYAWAN,(XII PM),K0103009802356@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802365,SASTH46,RAMA ADLI ALFIAN,(XII PM),K0103009802365@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802374,SASTH46,RIZKI ANANDA PRASETIA,(XII PM),K0103009802374@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802383,SASTH46,SAFIRA ZAHRA,(XII PM),K0103009802383@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802392,SASTH46,SAHRULDIN,(XII PM),K0103009802392@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802409,SASTH46,SELVIA ELVINA DARAPUSPITA,(XII PM),K0103009802409@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802418,SASTH46,SELVY AYU DAVISTA,(XII PM),K0103009802418@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802427,SASTH46,SHANDY PUTRA IRWANSYAH,(XII PM),K0103009802427@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802436,SASTH46,SHOHAIH AGYL SAPUTRA,(XII PM),K0103009802436@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802445,SASTH46,SIDIK DWI MUNAHZAR,(XII PM),K0103009802445@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802454,SASTH46,SYIFATUL HASANAH,(XII PM),K0103009802454@gmail.com,XII PM</t>
+  </si>
+  <si>
+    <t>K0103009802463,SASTH46,TISYA OCTAVIA RAMADHANI,(XII PM),K0103009802463@gmail.com,XII PM</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:A247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
